--- a/out/production/Algoritmer-och-datastrukturer/Laboration2/Uppgift4/analys.xlsx
+++ b/out/production/Algoritmer-och-datastrukturer/Laboration2/Uppgift4/analys.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philiphagg/Documents/AlgorithmsDataSructures/Algoritmer och datastrukturer/Algoritmer-och-datastrukturer/src/Laboration2/Uppgift4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC033B5-7509-E347-ADF5-194CF1E22AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCABDB4-E631-4149-B99F-DCFE81D6ACC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20540" yWindow="4880" windowWidth="28040" windowHeight="17360" activeTab="5" xr2:uid="{4870509D-0045-B744-83DA-FFD6ABB14D96}"/>
   </bookViews>
@@ -23,6 +23,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Blad1!$A$1:$C$181</definedName>
     <definedName name="Output" localSheetId="1">Blad1!$A$1:$D$121</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">Blad3!$A:$H</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -1287,7 +1288,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad3!$C$4</c:f>
+              <c:f>Blad3!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1310,7 +1311,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Blad3!$D$3:$G$3</c:f>
+              <c:f>Blad3!$B$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1331,7 +1332,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad3!$D$4:$G$4</c:f>
+              <c:f>Blad3!$B$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1583,7 +1584,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad3!$C$5</c:f>
+              <c:f>Blad3!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1606,7 +1607,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Blad3!$D$3:$I$3</c:f>
+              <c:f>Blad3!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1633,7 +1634,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad3!$D$5:$I$5</c:f>
+              <c:f>Blad3!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1891,7 +1892,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad3!$C$6</c:f>
+              <c:f>Blad3!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1914,7 +1915,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Blad3!$D$3:$I$3</c:f>
+              <c:f>Blad3!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1941,7 +1942,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad3!$D$6:$I$6</c:f>
+              <c:f>Blad3!$B$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2234,7 +2235,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad3!$C$4</c:f>
+              <c:f>Blad3!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2257,10 +2258,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Blad3!$D$3:$I$3</c:f>
+              <c:f>Blad3!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -2278,16 +2279,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad3!$D$4:$I$4</c:f>
+              <c:f>Blad3!$B$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>7.9</c:v>
                 </c:pt>
@@ -2315,7 +2319,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad3!$C$5</c:f>
+              <c:f>Blad3!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2338,10 +2342,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Blad3!$D$3:$I$3</c:f>
+              <c:f>Blad3!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -2359,16 +2363,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad3!$D$5:$I$5</c:f>
+              <c:f>Blad3!$B$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.2222222222222223</c:v>
                 </c:pt>
@@ -2386,6 +2393,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2701.4</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>54304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2402,7 +2412,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad3!$C$6</c:f>
+              <c:f>Blad3!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2425,10 +2435,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Blad3!$D$3:$I$3</c:f>
+              <c:f>Blad3!$B$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -2446,16 +2456,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad3!$D$6:$I$6</c:f>
+              <c:f>Blad3!$B$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>_-* #\ ##0_-;\-* #\ ##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -2473,6 +2486,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5152.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>58632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6088,13 +6104,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6122,16 +6138,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6161,13 +6177,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>177799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>914470</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121404</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6194,16 +6210,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>158749</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>961417</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7371,16 +7387,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F7037E-C421-2F43-83EE-24D583679A5B}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143:C181"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D169" sqref="D169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7402,7 +7418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -7413,7 +7429,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7435,7 +7451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7446,7 +7462,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7468,7 +7484,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -7479,7 +7495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -7501,7 +7517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -7512,7 +7528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -7534,7 +7550,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -7545,7 +7561,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -7567,7 +7583,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -7578,7 +7594,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -7600,7 +7616,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -7611,7 +7627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -7633,7 +7649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -7644,7 +7660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -7666,7 +7682,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -7677,7 +7693,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -7699,7 +7715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -7710,7 +7726,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -7732,7 +7748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -7743,7 +7759,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -7765,7 +7781,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -7776,7 +7792,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -7798,7 +7814,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -7809,7 +7825,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -7831,7 +7847,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -7842,7 +7858,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -7864,7 +7880,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -7875,7 +7891,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -7897,7 +7913,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -7908,7 +7924,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -7930,7 +7946,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -7941,7 +7957,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -7963,7 +7979,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -7974,7 +7990,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -7996,7 +8012,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -8007,7 +8023,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -8029,7 +8045,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -8040,7 +8056,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -8062,7 +8078,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -8073,7 +8089,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -8095,7 +8111,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -8106,7 +8122,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -8128,7 +8144,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -8139,7 +8155,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -8161,7 +8177,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -8172,7 +8188,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -8194,7 +8210,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -8205,7 +8221,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -8227,7 +8243,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -8238,7 +8254,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -8260,7 +8276,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -8271,7 +8287,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -8293,7 +8309,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -8304,7 +8320,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -8326,7 +8342,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -8337,7 +8353,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -8359,7 +8375,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -8370,7 +8386,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -8392,7 +8408,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -8403,7 +8419,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -8425,7 +8441,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -8436,7 +8452,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -8458,7 +8474,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -8469,7 +8485,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -8491,7 +8507,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -8502,7 +8518,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -8524,7 +8540,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -8535,7 +8551,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -8557,7 +8573,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -8568,7 +8584,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -8590,7 +8606,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -8601,7 +8617,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -8623,7 +8639,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -8634,7 +8650,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>4</v>
       </c>
@@ -8656,7 +8672,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -8667,7 +8683,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -8689,7 +8705,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -8700,7 +8716,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -8722,7 +8738,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>3</v>
       </c>
@@ -8744,7 +8760,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>3</v>
       </c>
@@ -8766,7 +8782,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -8788,7 +8804,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -8810,7 +8826,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -8832,7 +8848,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -8854,7 +8870,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>3</v>
       </c>
@@ -8876,7 +8892,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -8898,7 +8914,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>3</v>
       </c>
@@ -8920,7 +8936,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>3</v>
       </c>
@@ -8942,7 +8958,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>3</v>
       </c>
@@ -8964,7 +8980,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>3</v>
       </c>
@@ -8986,7 +9002,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>3</v>
       </c>
@@ -9008,7 +9024,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>3</v>
       </c>
@@ -9030,7 +9046,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>3</v>
       </c>
@@ -9052,7 +9068,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>3</v>
       </c>
@@ -9074,7 +9090,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -9096,7 +9112,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>3</v>
       </c>
@@ -9118,7 +9134,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>3</v>
       </c>
@@ -9140,7 +9156,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>3</v>
       </c>
@@ -9162,7 +9178,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>3</v>
       </c>
@@ -9184,7 +9200,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>3</v>
       </c>
@@ -9206,7 +9222,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>3</v>
       </c>
@@ -9228,7 +9244,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>3</v>
       </c>
@@ -9250,7 +9266,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>3</v>
       </c>
@@ -9272,7 +9288,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>3</v>
       </c>
@@ -9294,7 +9310,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>3</v>
       </c>
@@ -9316,7 +9332,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>3</v>
       </c>
@@ -9338,7 +9354,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>3</v>
       </c>
@@ -9360,7 +9376,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>3</v>
       </c>
@@ -9384,16 +9400,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C181" xr:uid="{A4F7037E-C421-2F43-83EE-24D583679A5B}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Mergesort"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C121">
       <sortCondition ref="C1:C121"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -9849,6 +9861,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -10524,6 +10537,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -11200,134 +11214,148 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30E606A-552B-0546-BB77-AE12BC0A3CCD}">
-  <dimension ref="C3:I6"/>
+  <dimension ref="A3:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="5">
+        <v>100</v>
+      </c>
+      <c r="C3" s="5">
+        <f>B3*10</f>
+        <v>1000</v>
+      </c>
       <c r="D3" s="5">
-        <v>100</v>
+        <f>C3*10</f>
+        <v>10000</v>
       </c>
       <c r="E3" s="5">
         <f>D3*10</f>
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="F3" s="5">
-        <f>E3*10</f>
-        <v>10000</v>
+        <f t="shared" ref="F3:H3" si="0">E3*10</f>
+        <v>1000000</v>
       </c>
       <c r="G3" s="5">
-        <f>F3*10</f>
-        <v>100000</v>
-      </c>
-      <c r="H3" s="5">
-        <f t="shared" ref="H3:I3" si="0">G3*10</f>
-        <v>1000000</v>
-      </c>
-      <c r="I3" s="5">
         <f t="shared" si="0"/>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+      <c r="H3" s="5">
+        <f t="shared" si="0"/>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6">
+      <c r="B4" s="6">
         <f>AVERAGE(insertionSort!B1:B10)</f>
         <v>7.9</v>
       </c>
-      <c r="E4" s="6">
+      <c r="C4" s="6">
         <f>AVERAGE(insertionSort!B11:B20)</f>
         <v>10</v>
       </c>
-      <c r="F4" s="6">
+      <c r="D4" s="6">
         <f>AVERAGE(insertionSort!B21:B30)</f>
         <v>210.8</v>
       </c>
-      <c r="G4" s="6">
+      <c r="E4" s="6">
         <f>AVERAGE(insertionSort!B31:B40)</f>
         <v>15157.1</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
         <f>AVERAGE(QuickSort!B1:B9)</f>
         <v>1.2222222222222223</v>
       </c>
-      <c r="E5" s="6">
+      <c r="C5" s="6">
         <f>AVERAGE(QuickSort!B11:B20)</f>
         <v>0.8</v>
       </c>
-      <c r="F5" s="6">
+      <c r="D5" s="6">
         <f>AVERAGE(QuickSort!B22:B30)</f>
         <v>4.5555555555555554</v>
       </c>
-      <c r="G5" s="6">
+      <c r="E5" s="6">
         <f>AVERAGE(QuickSort!B31:B40)</f>
         <v>12.8</v>
       </c>
-      <c r="H5" s="6">
+      <c r="F5" s="6">
         <f>AVERAGE(QuickSort!B41:B50)</f>
         <v>206.5</v>
       </c>
-      <c r="I5" s="6">
+      <c r="G5" s="6">
         <f>AVERAGE(QuickSort!B51:B60)</f>
         <v>2701.4</v>
       </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="H5">
+        <v>54304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
         <f>AVERAGE(MergeSort!B1:B10)</f>
         <v>0.1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="C6" s="6">
         <f>AVERAGE(MergeSort!B11:B20)</f>
         <v>0.9</v>
       </c>
-      <c r="F6" s="6">
+      <c r="D6" s="6">
         <f>AVERAGE(MergeSort!B21:B30)</f>
         <v>5.3</v>
       </c>
-      <c r="G6" s="6">
+      <c r="E6" s="6">
         <f>AVERAGE(MergeSort!B31:B40)</f>
         <v>19.2</v>
       </c>
-      <c r="H6" s="6">
+      <c r="F6" s="6">
         <f>AVERAGE(MergeSort!B41:B50)</f>
         <v>437.4</v>
       </c>
-      <c r="I6" s="6">
+      <c r="G6" s="6">
         <f>AVERAGE(MergeSort!B51:B60)</f>
         <v>5152.1000000000004</v>
       </c>
+      <c r="H6">
+        <v>58632</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>